--- a/cost new.xlsx
+++ b/cost new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0985ABA-AF3D-4DFA-904B-22573ECAE0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AF7A88-76FF-4B14-AB20-60FC48BEC959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2908F2FD-C160-4369-B146-0E0C540AAFA0}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,9 +511,6 @@
         <f>14000*2</f>
         <v>28000</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
         <f>B2+C2</f>
         <v>28000</v>
@@ -527,9 +524,6 @@
         <f>28000</f>
         <v>28000</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
         <f t="shared" ref="D3:D27" si="0">B3+C3</f>
         <v>28000</v>
@@ -542,9 +536,6 @@
       <c r="B4">
         <v>56000</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>56000</v>
@@ -557,9 +548,6 @@
       <c r="B5">
         <v>56000</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
         <f t="shared" ref="D5" si="1">B5+C5</f>
         <v>56000</v>
@@ -573,9 +561,6 @@
         <f>14000*2</f>
         <v>28000</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>28000</v>
@@ -589,9 +574,6 @@
         <f>14000*2</f>
         <v>28000</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
         <f t="shared" ref="D7" si="2">B7+C7</f>
         <v>28000</v>
@@ -605,9 +587,6 @@
         <f>14000*6</f>
         <v>84000</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>84000</v>
@@ -620,9 +599,6 @@
       <c r="B9">
         <v>14000</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>14000</v>
@@ -636,9 +612,6 @@
         <f>14000*3</f>
         <v>42000</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>42000</v>
@@ -652,9 +625,6 @@
         <f>10000</f>
         <v>10000</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -668,9 +638,6 @@
         <f>B11*3</f>
         <v>30000</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
         <f t="shared" si="0"/>
         <v>30000</v>
@@ -684,9 +651,6 @@
         <f>B11*5</f>
         <v>50000</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>50000</v>
@@ -700,9 +664,6 @@
         <f>B11*2</f>
         <v>20000</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>20000</v>
@@ -715,9 +676,6 @@
       <c r="B15">
         <v>58000</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
         <f t="shared" si="0"/>
         <v>58000</v>
@@ -730,9 +688,6 @@
       <c r="B16">
         <v>14000</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16">
         <f t="shared" si="0"/>
         <v>14000</v>
@@ -746,12 +701,9 @@
         <f>B16*2</f>
         <v>28000</v>
       </c>
-      <c r="C17">
-        <v>3000</v>
-      </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>31000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -761,12 +713,9 @@
       <c r="B18">
         <v>105000</v>
       </c>
-      <c r="C18">
-        <v>3000</v>
-      </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>108000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -776,12 +725,9 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>3000</v>
-      </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -791,12 +737,9 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>3000</v>
-      </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -806,12 +749,9 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>3000</v>
-      </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -821,12 +761,9 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>3000</v>
-      </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -837,12 +774,9 @@
         <f>18000+14000+28000</f>
         <v>60000</v>
       </c>
-      <c r="C23">
-        <v>3000</v>
-      </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>63000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -853,12 +787,9 @@
         <f>32000</f>
         <v>32000</v>
       </c>
-      <c r="C24">
-        <v>3000</v>
-      </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -869,12 +800,9 @@
         <f>14000*5</f>
         <v>70000</v>
       </c>
-      <c r="C25">
-        <v>3000</v>
-      </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>73000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -885,12 +813,9 @@
         <f>18000+14000+28000</f>
         <v>60000</v>
       </c>
-      <c r="C26">
-        <v>3000</v>
-      </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>63000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -900,12 +825,9 @@
       <c r="B27">
         <v>14000</v>
       </c>
-      <c r="C27">
-        <v>3000</v>
-      </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>17000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -915,12 +837,9 @@
       <c r="B28">
         <v>28000</v>
       </c>
-      <c r="C28">
-        <v>3000</v>
-      </c>
       <c r="D28">
         <f t="shared" ref="D28" si="3">B28+C28</f>
-        <v>31000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -930,12 +849,9 @@
       <c r="B29">
         <v>28000</v>
       </c>
-      <c r="C29">
-        <v>3000</v>
-      </c>
       <c r="D29">
         <f t="shared" ref="D29:D30" si="4">B29+C29</f>
-        <v>31000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -946,12 +862,9 @@
         <f>14000*6</f>
         <v>84000</v>
       </c>
-      <c r="C30">
-        <v>3000</v>
-      </c>
       <c r="D30">
         <f t="shared" si="4"/>
-        <v>87000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -961,12 +874,9 @@
       <c r="B31">
         <v>28000</v>
       </c>
-      <c r="C31">
-        <v>3000</v>
-      </c>
       <c r="D31">
         <f t="shared" ref="D31" si="5">B31+C31</f>
-        <v>31000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -977,12 +887,9 @@
         <f>17000*3</f>
         <v>51000</v>
       </c>
-      <c r="C32">
-        <v>3000</v>
-      </c>
       <c r="D32">
         <f t="shared" ref="D32" si="6">B32+C32</f>
-        <v>54000</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -993,12 +900,9 @@
         <f>14000*3</f>
         <v>42000</v>
       </c>
-      <c r="C33">
-        <v>3000</v>
-      </c>
       <c r="D33">
         <f t="shared" ref="D33" si="7">B33+C33</f>
-        <v>45000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,12 +912,9 @@
       <c r="B34">
         <v>13500</v>
       </c>
-      <c r="C34">
-        <v>3000</v>
-      </c>
       <c r="D34">
         <f t="shared" ref="D34:D35" si="8">C34+B34</f>
-        <v>16500</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1023,12 +924,9 @@
       <c r="B35">
         <v>30000</v>
       </c>
-      <c r="C35">
-        <v>3000</v>
-      </c>
       <c r="D35">
         <f t="shared" si="8"/>
-        <v>33000</v>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
